--- a/02_data/rawdata/Rob_Assesment_Riccardo_Johanna21.09.2023.xlsx
+++ b/02_data/rawdata/Rob_Assesment_Riccardo_Johanna21.09.2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emckclac-my.sharepoint.com/personal/k2141451_kcl_ac_uk/Documents/Documents/PhD/Projects/Umbrella_Meta-analysis_Archive/Risk of Bias Assesment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\Documents\PhD\UmbrellaMA\02_data\rawdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{0DD99F21-BC84-48A0-887E-98A9562B94D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D9AE9CE-84F4-4F17-A133-DB74B7E18804}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5966EF-8325-4761-9CB7-561B3ABA3A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Healthy_Symptoms" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="127">
   <si>
     <t>Q1</t>
   </si>
@@ -106,15 +106,6 @@
   </si>
   <si>
     <t>Seidman et al</t>
-  </si>
-  <si>
-    <t>Selection</t>
-  </si>
-  <si>
-    <t>Comparability</t>
-  </si>
-  <si>
-    <t>Outcome</t>
   </si>
   <si>
     <t>Mustonen et al</t>
@@ -497,21 +488,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -789,279 +774,323 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17.90625" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="2"/>
-    <col min="14" max="14" width="20.33203125" customWidth="1"/>
-    <col min="15" max="15" width="19.109375" customWidth="1"/>
-    <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.88671875" style="2"/>
+    <col min="8" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.90625" style="1"/>
+    <col min="14" max="14" width="20.36328125" customWidth="1"/>
+    <col min="15" max="15" width="19.08984375" customWidth="1"/>
+    <col min="21" max="21" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="D1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="6" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="Q1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="6" t="s">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="6"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Q1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <f>D2+E2+F2+G2+H2+I2+J2+K2</f>
+        <v>7</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <f>Q2+R2+S2+T2+U2+V2+W2</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L18" si="0">D3+E3+F3+G3+H3+I3+J3+K3</f>
+        <v>8</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3" si="1">Q3+R3+S3+T3+U3+V3+W3</f>
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="5" t="s">
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U2" t="s">
-        <v>4</v>
-      </c>
-      <c r="V2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W2" t="s">
-        <v>6</v>
-      </c>
-      <c r="X2" s="5" t="s">
+      <c r="N4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <f>Q4+R4+S4+T4+U4+V4+W4</f>
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <f>D3+E3+F3+G3+H3+I3+J3+K3</f>
-        <v>7</v>
-      </c>
-      <c r="N3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>2</v>
-      </c>
-      <c r="U3">
-        <v>2</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <f>Q3+R3+S3+T3+U3+V3+W3</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <f t="shared" ref="L4:L19" si="0">D4+E4+F4+G4+H4+I4+J4+K4</f>
-        <v>8</v>
-      </c>
-      <c r="N4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>2</v>
-      </c>
-      <c r="U4">
-        <v>2</v>
-      </c>
-      <c r="V4">
-        <v>2</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <f t="shared" ref="X4" si="1">Q4+R4+S4+T4+U4+V4+W4</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1070,7 +1099,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1079,7 +1108,7 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1089,16 +1118,16 @@
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N5" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>50</v>
+        <v>33</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="P5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -1107,10 +1136,10 @@
         <v>1</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <v>2</v>
@@ -1126,15 +1155,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>48</v>
+        <v>32</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1143,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1162,16 +1191,16 @@
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>52</v>
+        <v>33</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="P6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -1180,34 +1209,34 @@
         <v>1</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U6">
         <v>2</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W6">
         <v>1</v>
       </c>
       <c r="X6">
-        <f>Q6+R6+S6+T6+U6+V6+W6</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+        <f t="shared" ref="X6:X11" si="2">Q6+R6+S6+T6+U6+V6+W6</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1216,71 +1245,71 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>2</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="N7" t="s">
-        <v>36</v>
-      </c>
-      <c r="O7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>38</v>
       </c>
-      <c r="P7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>2</v>
-      </c>
-      <c r="U7">
-        <v>2</v>
-      </c>
-      <c r="V7">
-        <v>2</v>
-      </c>
-      <c r="W7">
-        <v>1</v>
-      </c>
-      <c r="X7">
-        <f t="shared" ref="X7:X12" si="2">Q7+R7+S7+T7+U7+V7+W7</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>46</v>
+      <c r="B8" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1289,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1308,16 +1337,16 @@
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="P8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -1329,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U8">
         <v>2</v>
@@ -1342,18 +1371,18 @@
       </c>
       <c r="X8">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>42</v>
+        <v>56</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1365,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1377,20 +1406,20 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="N9" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="P9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -1399,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9">
         <v>2</v>
@@ -1415,18 +1444,18 @@
       </c>
       <c r="X9">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1444,26 +1473,26 @@
         <v>2</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N10" t="s">
-        <v>54</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="P10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -1472,10 +1501,10 @@
         <v>1</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U10">
         <v>2</v>
@@ -1488,18 +1517,18 @@
       </c>
       <c r="X10">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1523,56 +1552,26 @@
         <v>1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N11" t="s">
-        <v>67</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="P11" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>2</v>
-      </c>
-      <c r="V11">
-        <v>1</v>
-      </c>
-      <c r="W11">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="X11">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1590,7 +1589,7 @@
         <v>2</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1600,22 +1599,18 @@
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="X12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1624,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1643,18 +1638,18 @@
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>66</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1663,10 +1658,10 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1682,18 +1677,18 @@
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1702,7 +1697,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1721,18 +1716,18 @@
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1744,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1756,22 +1751,22 @@
         <v>1</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1789,28 +1784,28 @@
         <v>2</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1819,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1838,338 +1833,337 @@
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="3"/>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B20" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="V1:W1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{476D6933-9FD0-4691-8988-CE6C4950EFF5}">
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" customWidth="1"/>
-    <col min="2" max="2" width="23.77734375" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="2"/>
-    <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="26.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.81640625" customWidth="1"/>
+    <col min="8" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.90625" style="1"/>
+    <col min="21" max="21" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="D1" s="6" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>D2+E2+F2+G2+H2+I2+J2+K2</f>
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
+        <v>2</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <f>Q2+R2+S2+T2+U2+V2+W2</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="Q1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="W1" s="6"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L6" si="0">D3+E3+F3+G3+H3+I3+J3+K3</f>
+        <v>8</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X7" si="1">Q3+R3+S3+T3+U3+V3+W3</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U2" t="s">
-        <v>4</v>
-      </c>
-      <c r="V2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W2" t="s">
-        <v>6</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <f>D3+E3+F3+G3+H3+I3+J3+K3</f>
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>2</v>
-      </c>
-      <c r="U3">
-        <v>2</v>
-      </c>
-      <c r="V3">
-        <v>2</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <f>Q3+R3+S3+T3+U3+V3+W3</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <f t="shared" ref="L4:L7" si="0">D4+E4+F4+G4+H4+I4+J4+K4</f>
-        <v>8</v>
-      </c>
-      <c r="N4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>2</v>
-      </c>
-      <c r="U4">
-        <v>2</v>
-      </c>
-      <c r="V4">
-        <v>2</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <f t="shared" ref="X4:X8" si="1">Q4+R4+S4+T4+U4+V4+W4</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>34</v>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2200,13 +2194,13 @@
         <v>8</v>
       </c>
       <c r="N5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="O5" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="P5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -2221,28 +2215,28 @@
         <v>2</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W5">
         <v>1</v>
       </c>
       <c r="X5">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>64</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2266,20 +2260,20 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="P6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2297,68 +2291,32 @@
         <v>2</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W6">
         <v>1</v>
       </c>
       <c r="X6">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
       <c r="N7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="P7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q7">
         <v>1</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -2377,73 +2335,30 @@
       </c>
       <c r="X7">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="N8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>2</v>
-      </c>
-      <c r="U8">
-        <v>2</v>
-      </c>
-      <c r="V8">
-        <v>2</v>
-      </c>
-      <c r="W8">
-        <v>1</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="O14" s="3"/>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="O13" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="V1:W1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2452,290 +2367,320 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFC987A-BEEC-4A58-80C6-C59F80E4C360}">
-  <dimension ref="A1:AK19"/>
+  <dimension ref="A1:AK18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AE5" sqref="AE5"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="2"/>
-    <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.88671875" style="2"/>
-    <col min="33" max="33" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.90625" style="1"/>
+    <col min="21" max="21" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.90625" style="1"/>
+    <col min="33" max="33" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="D1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="6" t="s">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="Q1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="6" t="s">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="6"/>
-      <c r="AC1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH1" s="6" t="s">
+      <c r="Q1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB1" t="s">
         <v>24</v>
       </c>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AC1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:L6" si="0">D2+E2+F2+G2+H2+I2+J2+K2</f>
+        <v>8</v>
+      </c>
+      <c r="N2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
+        <v>2</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <f>Q2+R2+S2+T2+U2+V2+W2</f>
+        <v>10</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>2</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <f>AC2+AD2+AE2+AF2+AG2+AH2+AI2+AJ2</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X4" si="1">Q3+R3+S3+T3+U3+V3+W3</f>
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U2" t="s">
-        <v>4</v>
-      </c>
-      <c r="V2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W2" t="s">
-        <v>6</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L7" si="0">D3+E3+F3+G3+H3+I3+J3+K3</f>
-        <v>8</v>
-      </c>
-      <c r="N3" t="s">
-        <v>89</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="P3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>2</v>
-      </c>
-      <c r="U3">
-        <v>2</v>
-      </c>
-      <c r="V3">
-        <v>2</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <f>Q3+R3+S3+T3+U3+V3+W3</f>
-        <v>10</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AB3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC3">
-        <v>1</v>
-      </c>
-      <c r="AD3">
-        <v>1</v>
-      </c>
-      <c r="AE3">
-        <v>1</v>
-      </c>
-      <c r="AF3">
-        <v>1</v>
-      </c>
-      <c r="AG3">
-        <v>2</v>
-      </c>
-      <c r="AH3">
-        <v>1</v>
-      </c>
-      <c r="AI3">
-        <v>1</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <f>AC3+AD3+AE3+AF3+AG3+AH3+AI3+AJ3</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2759,20 +2704,20 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N4" t="s">
-        <v>89</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="P4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -2796,19 +2741,19 @@
         <v>1</v>
       </c>
       <c r="X4">
-        <f t="shared" ref="X4:X5" si="1">Q4+R4+S4+T4+U4+V4+W4</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2839,13 +2784,13 @@
         <v>9</v>
       </c>
       <c r="N5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="P5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -2869,19 +2814,19 @@
         <v>1</v>
       </c>
       <c r="X5">
-        <f t="shared" si="1"/>
+        <f>Q5+R5+S5+T5+U5+V5+W5</f>
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2905,56 +2850,56 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <f t="shared" ref="X6:X7" si="2">Q6+R6+S6+T6+U6+V6+W6</f>
         <v>9</v>
       </c>
-      <c r="N6" t="s">
-        <v>89</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="P6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>2</v>
-      </c>
-      <c r="U6">
-        <v>2</v>
-      </c>
-      <c r="V6">
-        <v>2</v>
-      </c>
-      <c r="W6">
-        <v>1</v>
-      </c>
-      <c r="X6">
-        <f>Q6+R6+S6+T6+U6+V6+W6</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>81</v>
+      <c r="B7" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2981,53 +2926,53 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <f t="shared" si="0"/>
+        <f>D7+E7+F7+G7+H7+I7+J7+K7</f>
         <v>8</v>
       </c>
       <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>76</v>
       </c>
-      <c r="O7" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="P7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>2</v>
-      </c>
-      <c r="U7">
-        <v>2</v>
-      </c>
-      <c r="V7">
-        <v>2</v>
-      </c>
-      <c r="W7">
-        <v>1</v>
-      </c>
-      <c r="X7">
-        <f t="shared" ref="X7:X8" si="2">Q7+R7+S7+T7+U7+V7+W7</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>88</v>
+      <c r="B8" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -3057,375 +3002,303 @@
         <f>D8+E8+F8+G8+H8+I8+J8+K8</f>
         <v>8</v>
       </c>
-      <c r="N8" t="s">
-        <v>89</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="P8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <v>2</v>
-      </c>
-      <c r="U8">
-        <v>2</v>
-      </c>
-      <c r="V8">
-        <v>2</v>
-      </c>
-      <c r="W8">
-        <v>1</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <f>D9+E9+F9+G9+H9+I9+J9+K9</f>
-        <v>8</v>
-      </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B15" s="3"/>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="3"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="B10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="B11" s="2"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="B12" s="2"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="B13" s="2"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="B14" s="2"/>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="B15" s="2"/>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="AC1:AF1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31CFAEC-CE29-4C66-AC86-42076EF96F73}">
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection sqref="A1:L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="2"/>
-    <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" customWidth="1"/>
+    <col min="8" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.90625" style="1"/>
+    <col min="21" max="21" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="D1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="6" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="Q1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="6" t="s">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Q1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <f>D2+E2+F2+G2+H2+I2+J2+K2</f>
+        <v>8</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f>Q2+R2+S2+T2+U2+V2+W2+X2</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L23" si="0">D3+E3+F3+G3+H3+I3+J3+K3</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U2" t="s">
-        <v>4</v>
-      </c>
-      <c r="V2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W2" t="s">
-        <v>6</v>
-      </c>
-      <c r="X2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <f>D3+E3+F3+G3+H3+I3+J3+K3</f>
-        <v>8</v>
-      </c>
-      <c r="N3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="P3" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>2</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <f>Q3+R3+S3+T3+U3+V3+W3+X3</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <f t="shared" ref="L4:L24" si="0">D4+E4+F4+G4+H4+I4+J4+K4</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3440,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -3449,22 +3322,22 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>37</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3473,13 +3346,13 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -3495,15 +3368,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -3534,15 +3407,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -3551,10 +3424,10 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -3566,22 +3439,22 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>37</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -3605,22 +3478,22 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>37</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -3632,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -3644,22 +3517,22 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>37</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -3668,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -3683,22 +3556,22 @@
         <v>1</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -3722,22 +3595,22 @@
         <v>1</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -3746,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -3761,22 +3634,22 @@
         <v>1</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>21</v>
+        <v>38</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -3807,15 +3680,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>42</v>
+        <v>76</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -3842,97 +3715,97 @@
         <v>0</v>
       </c>
       <c r="L15">
+        <f>D15+E15+F15+G15+H15+I15+J15+K15</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <f>D16+E16+F16+G16+H16+I16+J16+K16</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="3" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <f>D16+E16+F16+G16+H16+I16+J16+K16</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <f>D17+E17+F17+G17+H17+I17+J17+K17</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -3944,7 +3817,7 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -3956,22 +3829,22 @@
         <v>1</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -3995,22 +3868,22 @@
         <v>1</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -4041,15 +3914,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -4073,22 +3946,22 @@
         <v>1</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>84</v>
+        <v>73</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -4119,15 +3992,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -4139,7 +4012,7 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -4151,59 +4024,14 @@
         <v>1</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>2</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="V1:X1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4212,216 +4040,280 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2188E158-2F7E-476A-88DD-EAD34503B8C4}">
-  <dimension ref="A1:AK19"/>
+  <dimension ref="A1:AK18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="47.88671875" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="2"/>
-    <col min="13" max="13" width="17.109375" customWidth="1"/>
-    <col min="25" max="25" width="8.88671875" style="2"/>
-    <col min="27" max="27" width="24.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="47.90625" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="12" max="12" width="8.90625" style="1"/>
+    <col min="13" max="13" width="17.08984375" customWidth="1"/>
+    <col min="25" max="25" width="8.90625" style="1"/>
+    <col min="27" max="27" width="24.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="D1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="6" t="s">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="P1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U1" s="6" t="s">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="AC1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH1" s="6" t="s">
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB1" t="s">
         <v>24</v>
       </c>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AC1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f>D2+E2+F2+G2+H2+I2+J2</f>
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <f>P2+Q2+R2+S2+T2+U2+V2+W2</f>
+        <v>7</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>2</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
+      </c>
+      <c r="AJ2">
+        <v>1</v>
+      </c>
+      <c r="AK2">
+        <f>AC2+AD2+AE2+AF2+AG2+AH2+AI2+AJ2</f>
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T2" t="s">
-        <v>4</v>
-      </c>
-      <c r="U2" t="s">
-        <v>5</v>
-      </c>
-      <c r="V2" t="s">
-        <v>6</v>
-      </c>
-      <c r="W2" t="s">
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K15" si="0">D3+E3+F3+G3+H3+I3+J3</f>
         <v>7</v>
       </c>
-      <c r="X2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <f>D3+E3+F3+G3+H3+I3+J3</f>
-        <v>10</v>
-      </c>
       <c r="M3" t="s">
-        <v>95</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="O3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -4451,11 +4343,11 @@
         <f>P3+Q3+R3+S3+T3+U3+V3+W3</f>
         <v>7</v>
       </c>
-      <c r="AA3" s="3" t="s">
-        <v>113</v>
+      <c r="AA3" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="AB3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AC3">
         <v>1</v>
@@ -4467,7 +4359,7 @@
         <v>1</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3">
         <v>2</v>
@@ -4482,59 +4374,59 @@
         <v>1</v>
       </c>
       <c r="AK3">
-        <f>AC3+AD3+AE3+AF3+AG3+AH3+AI3+AJ3</f>
+        <f t="shared" ref="AK3:AK18" si="1">AC3+AD3+AE3+AF3+AG3+AH3+AI3+AJ3</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K16" si="0">D4+E4+F4+G4+H4+I4+J4</f>
-        <v>7</v>
-      </c>
       <c r="M4" t="s">
-        <v>95</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="O4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P4">
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -4556,13 +4448,13 @@
       </c>
       <c r="X4">
         <f>P4+Q4+R4+S4+T4+U4+V4+W4</f>
-        <v>7</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>114</v>
+        <v>8</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="AB4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AC4">
         <v>1</v>
@@ -4589,59 +4481,38 @@
         <v>1</v>
       </c>
       <c r="AK4">
-        <f t="shared" ref="AK4:AK19" si="1">AC4+AD4+AE4+AF4+AG4+AH4+AI4+AJ4</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>95</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>107</v>
+        <v>92</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="O5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P5">
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -4663,13 +4534,13 @@
       </c>
       <c r="X5">
         <f>P5+Q5+R5+S5+T5+U5+V5+W5</f>
-        <v>8</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>115</v>
+        <v>7</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="AB5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AC5">
         <v>1</v>
@@ -4684,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH5">
         <v>1</v>
@@ -4697,65 +4568,50 @@
       </c>
       <c r="AK5">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>106</v>
+        <v>92</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>95</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="O6" t="s">
-        <v>75</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6">
-        <v>2</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
-      <c r="W6">
-        <v>1</v>
-      </c>
-      <c r="X6">
-        <f>P6+Q6+R6+S6+T6+U6+V6+W6</f>
-        <v>7</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>116</v>
+        <v>9</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="AA6" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="AB6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AC6">
         <v>1</v>
@@ -4767,7 +4623,7 @@
         <v>1</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -4783,18 +4639,18 @@
       </c>
       <c r="AK6">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -4806,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -4819,14 +4675,14 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="N7" s="3"/>
-      <c r="AA7" s="3" t="s">
-        <v>117</v>
+        <v>7</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="AA7" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="AB7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AC7">
         <v>1</v>
@@ -4841,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH7">
         <v>1</v>
@@ -4854,18 +4710,18 @@
       </c>
       <c r="AK7">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -4877,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -4890,14 +4746,13 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N8" s="3"/>
-      <c r="AA8" s="3" t="s">
-        <v>118</v>
+        <v>9</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="AB8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AC8">
         <v>1</v>
@@ -4921,22 +4776,22 @@
         <v>1</v>
       </c>
       <c r="AJ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK8">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -4945,7 +4800,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -4961,13 +4816,13 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>119</v>
+        <v>10</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="AB9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AC9">
         <v>1</v>
@@ -4991,22 +4846,22 @@
         <v>1</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK9">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>103</v>
+        <v>92</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -5015,10 +4870,10 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -5031,13 +4886,13 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>120</v>
+        <v>7</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="AB10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AC10">
         <v>1</v>
@@ -5052,7 +4907,7 @@
         <v>1</v>
       </c>
       <c r="AG10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH10">
         <v>1</v>
@@ -5065,18 +4920,18 @@
       </c>
       <c r="AK10">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>104</v>
+        <v>92</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -5085,10 +4940,10 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -5101,13 +4956,13 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="AA11" s="3" t="s">
-        <v>121</v>
+        <v>10</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="AB11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AC11">
         <v>1</v>
@@ -5122,7 +4977,7 @@
         <v>1</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH11">
         <v>1</v>
@@ -5135,18 +4990,18 @@
       </c>
       <c r="AK11">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>105</v>
+        <v>92</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -5155,7 +5010,7 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -5171,13 +5026,13 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AA12" s="3" t="s">
-        <v>122</v>
+        <v>9</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="AB12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AC12">
         <v>1</v>
@@ -5208,21 +5063,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>107</v>
+        <v>92</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -5241,13 +5096,13 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="AA13" s="3" t="s">
-        <v>123</v>
+        <v>8</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="AB13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AC13">
         <v>1</v>
@@ -5278,21 +5133,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>109</v>
+        <v>92</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -5311,13 +5166,13 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>124</v>
+        <v>9</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="AB14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AC14">
         <v>1</v>
@@ -5326,7 +5181,7 @@
         <v>1</v>
       </c>
       <c r="AE14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>1</v>
@@ -5345,18 +5200,18 @@
       </c>
       <c r="AK14">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>110</v>
+        <v>92</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -5368,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -5381,13 +5236,13 @@
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="AA15" s="3" t="s">
-        <v>125</v>
+        <v>7</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="AB15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AC15">
         <v>1</v>
@@ -5396,10 +5251,10 @@
         <v>1</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15">
         <v>2</v>
@@ -5418,46 +5273,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="AA16" s="3" t="s">
-        <v>126</v>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AA16" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="AB16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AC16">
         <v>1</v>
@@ -5466,10 +5287,10 @@
         <v>1</v>
       </c>
       <c r="AE16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16">
         <v>2</v>
@@ -5488,12 +5309,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="27:37" x14ac:dyDescent="0.3">
-      <c r="AA17" s="3" t="s">
-        <v>127</v>
+    <row r="17" spans="27:37" x14ac:dyDescent="0.35">
+      <c r="AA17" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="AB17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AC17">
         <v>1</v>
@@ -5502,7 +5323,7 @@
         <v>1</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF17">
         <v>1</v>
@@ -5521,15 +5342,15 @@
       </c>
       <c r="AK17">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="27:37" x14ac:dyDescent="0.3">
-      <c r="AA18" s="3" t="s">
-        <v>128</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="27:37" x14ac:dyDescent="0.35">
+      <c r="AA18" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="AB18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AC18">
         <v>1</v>
@@ -5541,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="AF18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG18">
         <v>2</v>
@@ -5557,54 +5378,10 @@
       </c>
       <c r="AK18">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="27:37" x14ac:dyDescent="0.3">
-      <c r="AA19" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC19">
-        <v>1</v>
-      </c>
-      <c r="AD19">
-        <v>1</v>
-      </c>
-      <c r="AE19">
-        <v>1</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>2</v>
-      </c>
-      <c r="AH19">
-        <v>1</v>
-      </c>
-      <c r="AI19">
-        <v>1</v>
-      </c>
-      <c r="AJ19">
-        <v>1</v>
-      </c>
-      <c r="AK19">
-        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="AC1:AF1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/02_data/rawdata/Rob_Assesment_Riccardo_Johanna21.09.2023.xlsx
+++ b/02_data/rawdata/Rob_Assesment_Riccardo_Johanna21.09.2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\Documents\PhD\UmbrellaMA\02_data\rawdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5966EF-8325-4761-9CB7-561B3ABA3A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239958B6-0AB0-4BE4-B1B4-6ADCB01EF958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Healthy_Symptoms" sheetId="1" r:id="rId1"/>
@@ -1852,7 +1852,7 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2370,7 +2370,7 @@
   <dimension ref="A1:AK18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3049,7 +3049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31CFAEC-CE29-4C66-AC86-42076EF96F73}">
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="Q1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -4042,7 +4042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2188E158-2F7E-476A-88DD-EAD34503B8C4}">
   <dimension ref="A1:AK18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
